--- a/layout_schematics_bom/accelero_bom.xlsx
+++ b/layout_schematics_bom/accelero_bom.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1FA3F-67F1-41E1-8EA7-6FEE2351C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCELEROMETERO" sheetId="1" r:id="rId1"/>
@@ -325,8 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +901,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -941,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,9 +987,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,6 +1039,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,35 +1232,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1218,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="36">
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1270,7 +1320,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="36">
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1296,7 +1346,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36">
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -1322,7 +1372,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -1348,7 +1398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36">
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1374,7 +1424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24">
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1400,7 +1450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1426,7 +1476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1452,7 +1502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24">
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1478,7 +1528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24">
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1504,7 +1554,7 @@
         <v>1725656</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1524,7 +1574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24">
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1550,7 +1600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24">
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -1576,7 +1626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -1602,7 +1652,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24">
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -1628,7 +1678,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -1654,7 +1704,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24">
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -1680,7 +1730,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24">
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -1706,7 +1756,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24">
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -1732,7 +1782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -1758,7 +1808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24">
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>21</v>
       </c>
